--- a/muting/forms/app/unmute_contact.xlsx
+++ b/muting/forms/app/unmute_contact.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -277,15 +277,18 @@
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -858,7 +858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,8 +931,11 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -940,10 +943,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -951,15 +957,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -979,7 +985,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1145,7 +1151,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213161020</v>
+        <v>20250213162920</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>

--- a/muting/forms/app/unmute_contact.xlsx
+++ b/muting/forms/app/unmute_contact.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -290,12 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
   </si>
   <si>
     <t xml:space="preserve">contact</t>
@@ -851,14 +845,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,7 +934,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -948,13 +942,10 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -962,76 +953,65 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="4"/>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:I13 A28:I10000 A27:B27 D17:I27 A2:C26 E14:I16">
+  <conditionalFormatting sqref="D5:I12 A27:I9999 A26:B26 D16:I26 A5:C25 E13:I15 A2:I4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1048,41 +1028,41 @@
       <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10000">
+  <conditionalFormatting sqref="B2:B9999">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C27:C9999 C2:C25">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10000">
+  <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
+      <formula>$A26="begin_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
+      <formula>$A26="end_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
+      <formula>$A26="begin_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
+      <formula>$A26="end_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
+      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
+      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1090,7 +1070,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1015" type="list">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1014" type="list">
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1127,37 +1107,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213162920</v>
+        <v>20250214131004</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/muting/forms/app/unmute_contact.xlsx
+++ b/muting/forms/app/unmute_contact.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">./source = 'user'</t>
@@ -852,7 +849,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,31 +902,28 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,40 +931,40 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -978,16 +972,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -995,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1002,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:I12 A27:I9999 A26:B26 D16:I26 A5:C25 E13:I15 A2:I4">
+  <conditionalFormatting sqref="D5:I12 A27:I9999 A26:B26 D16:I26 A5:C25 E13:I15 A2:I4 C26">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1033,7 +1024,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1041,28 +1032,6 @@
   <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1107,37 +1076,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250214131004</v>
+        <v>20251119135114</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/muting/forms/app/unmute_contact.xlsx
+++ b/muting/forms/app/unmute_contact.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,38 +185,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -328,9 +314,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -341,9 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unmute Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unmute_contact</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -1002,7 +982,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:I12 A27:I9999 A26:B26 D16:I26 A5:C25 E13:I15 A2:I4 C26">
+  <conditionalFormatting sqref="D5:I12 A27:I9999 D16:I26 A5:C26 E13:I15 A2:I4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1024,7 +1004,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1060,18 +1040,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,26 +1066,20 @@
       <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092928</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119135114</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/muting/forms/app/unmute_contact.xlsx
+++ b/muting/forms/app/unmute_contact.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,38 +185,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -268,9 +254,6 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">./source = 'user'</t>
   </si>
   <si>
@@ -331,9 +314,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -344,9 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unmute Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unmute_contact</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -852,7 +829,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,31 +882,28 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,40 +911,40 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -978,16 +952,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -995,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +982,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:I12 A27:I9999 A26:B26 D16:I26 A5:C25 E13:I15 A2:I4">
+  <conditionalFormatting sqref="D5:I12 A27:I9999 D16:I26 A5:C26 E13:I15 A2:I4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1033,7 +1004,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1041,28 +1012,6 @@
   <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1091,53 +1040,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092928</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250214131004</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
